--- a/Innovazione_macroreg.xlsx
+++ b/Innovazione_macroreg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleonora\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE36EABC-094B-45E4-A8A1-83A57E77E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA020741-22C6-4491-8842-C8084C0801B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,60 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Nord-ovest  </t>
+    <t>Nord Ovest</t>
   </si>
   <si>
-    <t xml:space="preserve">2010  </t>
+    <t>Nord Est</t>
   </si>
   <si>
-    <t xml:space="preserve">2011  </t>
+    <t>Centro</t>
   </si>
   <si>
-    <t xml:space="preserve">2012  </t>
+    <t>Sud</t>
   </si>
   <si>
-    <t xml:space="preserve">2013  </t>
+    <t xml:space="preserve">Isole </t>
   </si>
   <si>
-    <t xml:space="preserve">2014  </t>
+    <t>Area geografica</t>
   </si>
   <si>
-    <t xml:space="preserve">2015  </t>
+    <t>Anno</t>
   </si>
   <si>
-    <t xml:space="preserve">2016  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nord-est  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sud  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isole  </t>
-  </si>
-  <si>
-    <t>PROPENSIONE ALLA BREVETTAZIONE</t>
-  </si>
-  <si>
-    <t>ANNO</t>
-  </si>
-  <si>
-    <t>AREA GEOGRAFICA</t>
+    <t>Propensione alla brevettazione</t>
   </si>
 </sst>
 </file>
@@ -109,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -448,28 +419,28 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>2010</v>
       </c>
       <c r="C2">
         <v>124.9</v>
@@ -479,8 +450,8 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="1">
+        <v>2011</v>
       </c>
       <c r="C3">
         <v>122.6</v>
@@ -490,8 +461,8 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>2012</v>
       </c>
       <c r="C4">
         <v>117.7</v>
@@ -501,8 +472,8 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5" s="1">
+        <v>2013</v>
       </c>
       <c r="C5">
         <v>105.3</v>
@@ -512,8 +483,8 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>2014</v>
       </c>
       <c r="C6">
         <v>114.9</v>
@@ -523,8 +494,8 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="1">
+        <v>2015</v>
       </c>
       <c r="C7">
         <v>116.2</v>
@@ -534,8 +505,8 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="1">
+        <v>2016</v>
       </c>
       <c r="C8">
         <v>122.6</v>
@@ -545,8 +516,8 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9" s="1">
+        <v>2017</v>
       </c>
       <c r="C9">
         <v>127.5</v>
@@ -556,8 +527,8 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10" s="1">
+        <v>2018</v>
       </c>
       <c r="C10">
         <v>124.9</v>
@@ -567,8 +538,8 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B11" s="1">
+        <v>2019</v>
       </c>
       <c r="C11">
         <v>124.9</v>
@@ -576,10 +547,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
         <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2010</v>
       </c>
       <c r="C12">
         <v>134.1</v>
@@ -587,10 +558,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2011</v>
       </c>
       <c r="C13">
         <v>143.30000000000001</v>
@@ -598,10 +569,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2012</v>
       </c>
       <c r="C14">
         <v>147.6</v>
@@ -609,10 +580,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2013</v>
       </c>
       <c r="C15">
         <v>153.80000000000001</v>
@@ -620,10 +591,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2014</v>
       </c>
       <c r="C16">
         <v>134</v>
@@ -631,10 +602,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2015</v>
       </c>
       <c r="C17">
         <v>140.6</v>
@@ -642,10 +613,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2016</v>
       </c>
       <c r="C18">
         <v>154.4</v>
@@ -653,10 +624,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2017</v>
       </c>
       <c r="C19">
         <v>149.9</v>
@@ -664,10 +635,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2018</v>
       </c>
       <c r="C20">
         <v>155.80000000000001</v>
@@ -675,10 +646,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2019</v>
       </c>
       <c r="C21">
         <v>154.6</v>
@@ -686,10 +657,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2010</v>
       </c>
       <c r="C22">
         <v>65.900000000000006</v>
@@ -697,10 +668,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
         <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2011</v>
       </c>
       <c r="C23">
         <v>62.7</v>
@@ -708,10 +679,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2012</v>
       </c>
       <c r="C24">
         <v>60.3</v>
@@ -719,10 +690,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2013</v>
       </c>
       <c r="C25">
         <v>58.9</v>
@@ -730,10 +701,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2014</v>
       </c>
       <c r="C26">
         <v>57.1</v>
@@ -741,10 +712,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2015</v>
       </c>
       <c r="C27">
         <v>59.6</v>
@@ -752,10 +723,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2016</v>
       </c>
       <c r="C28">
         <v>61.9</v>
@@ -763,10 +734,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2017</v>
       </c>
       <c r="C29">
         <v>61.8</v>
@@ -774,10 +745,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2018</v>
       </c>
       <c r="C30">
         <v>58.8</v>
@@ -785,10 +756,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2019</v>
       </c>
       <c r="C31">
         <v>56.9</v>
@@ -796,10 +767,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2010</v>
       </c>
       <c r="C32">
         <v>10.7</v>
@@ -807,10 +778,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2011</v>
       </c>
       <c r="C33">
         <v>10.3</v>
@@ -818,10 +789,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
         <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2012</v>
       </c>
       <c r="C34">
         <v>6.6</v>
@@ -829,10 +800,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2013</v>
       </c>
       <c r="C35">
         <v>6.3</v>
@@ -840,10 +811,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2014</v>
       </c>
       <c r="C36">
         <v>7.8</v>
@@ -851,10 +822,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2015</v>
       </c>
       <c r="C37">
         <v>11.2</v>
@@ -862,10 +833,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2016</v>
       </c>
       <c r="C38">
         <v>8.3000000000000007</v>
@@ -873,10 +844,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2017</v>
       </c>
       <c r="C39">
         <v>10.4</v>
@@ -884,10 +855,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2018</v>
       </c>
       <c r="C40">
         <v>11.8</v>
@@ -895,10 +866,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2019</v>
       </c>
       <c r="C41">
         <v>12</v>
@@ -906,10 +877,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2010</v>
       </c>
       <c r="C42">
         <v>15.8</v>
@@ -917,10 +888,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2011</v>
       </c>
       <c r="C43">
         <v>14.3</v>
@@ -928,10 +899,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2012</v>
       </c>
       <c r="C44">
         <v>12.8</v>
@@ -939,10 +910,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
         <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2013</v>
       </c>
       <c r="C45">
         <v>14</v>
@@ -950,10 +921,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2014</v>
       </c>
       <c r="C46">
         <v>14.2</v>
@@ -961,10 +932,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2015</v>
       </c>
       <c r="C47">
         <v>14.7</v>
@@ -972,10 +943,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2016</v>
       </c>
       <c r="C48">
         <v>15.1</v>
@@ -983,10 +954,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2017</v>
       </c>
       <c r="C49">
         <v>16.399999999999999</v>
@@ -994,10 +965,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2018</v>
       </c>
       <c r="C50">
         <v>18.7</v>
@@ -1005,10 +976,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2019</v>
       </c>
       <c r="C51">
         <v>18.2</v>
